--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>620.0970640716087</v>
+        <v>737.4578340893037</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.4441598145</v>
+        <v>1009.022342944467</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.4698400006605</v>
+        <v>912.7226667055992</v>
       </c>
       <c r="AD2" t="n">
-        <v>620097.0640716087</v>
+        <v>737457.8340893036</v>
       </c>
       <c r="AE2" t="n">
-        <v>848444.1598145</v>
+        <v>1009022.342944467</v>
       </c>
       <c r="AF2" t="n">
         <v>6.74491351523261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>767469.8400006605</v>
+        <v>912722.6667055992</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.850002271315</v>
+        <v>313.3354857449756</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.0145751271882</v>
+        <v>428.7194349823021</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.0412542730584</v>
+        <v>387.8030538190965</v>
       </c>
       <c r="AD3" t="n">
-        <v>244850.002271315</v>
+        <v>313335.4857449756</v>
       </c>
       <c r="AE3" t="n">
-        <v>335014.5751271882</v>
+        <v>428719.4349823021</v>
       </c>
       <c r="AF3" t="n">
         <v>1.249424977028652e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>303041.2542730584</v>
+        <v>387803.0538190965</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.2692669303943</v>
+        <v>274.000394552487</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.5409080238206</v>
+        <v>374.8994278709901</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.4303371528748</v>
+        <v>339.1195526496337</v>
       </c>
       <c r="AD4" t="n">
-        <v>215269.2669303943</v>
+        <v>274000.3945524869</v>
       </c>
       <c r="AE4" t="n">
-        <v>294540.9080238206</v>
+        <v>374899.4278709901</v>
       </c>
       <c r="AF4" t="n">
         <v>1.355424008816123e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.57916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>266430.3371528747</v>
+        <v>339119.5526496337</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>215.105362392245</v>
+        <v>273.8364900143377</v>
       </c>
       <c r="AB5" t="n">
-        <v>294.3166466037669</v>
+        <v>374.6751664509363</v>
       </c>
       <c r="AC5" t="n">
-        <v>266.227478927998</v>
+        <v>338.9166944247571</v>
       </c>
       <c r="AD5" t="n">
-        <v>215105.362392245</v>
+        <v>273836.4900143377</v>
       </c>
       <c r="AE5" t="n">
-        <v>294316.6466037669</v>
+        <v>374675.1664509363</v>
       </c>
       <c r="AF5" t="n">
         <v>1.359605207298145e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.54583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>266227.478927998</v>
+        <v>338916.694424757</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>406.5063365301245</v>
+        <v>493.5639590733932</v>
       </c>
       <c r="AB2" t="n">
-        <v>556.1999034343813</v>
+        <v>675.3159833093242</v>
       </c>
       <c r="AC2" t="n">
-        <v>503.1169652820706</v>
+        <v>610.8647736742171</v>
       </c>
       <c r="AD2" t="n">
-        <v>406506.3365301245</v>
+        <v>493563.9590733931</v>
       </c>
       <c r="AE2" t="n">
-        <v>556199.9034343814</v>
+        <v>675315.9833093242</v>
       </c>
       <c r="AF2" t="n">
         <v>9.440164005353267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.19166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>503116.9652820706</v>
+        <v>610864.7736742171</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.4302293577614</v>
+        <v>267.5135242584126</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.5516792167911</v>
+        <v>366.0238057541178</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.2035891302326</v>
+        <v>331.0910074505819</v>
       </c>
       <c r="AD3" t="n">
-        <v>209430.2293577614</v>
+        <v>267513.5242584127</v>
       </c>
       <c r="AE3" t="n">
-        <v>286551.6792167911</v>
+        <v>366023.8057541178</v>
       </c>
       <c r="AF3" t="n">
         <v>1.445576633600049e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.87916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>259203.5891302325</v>
+        <v>331091.0074505819</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.294156573583</v>
+        <v>267.3774514742342</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.3654984303707</v>
+        <v>365.8376249676974</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.0351771767617</v>
+        <v>330.922595497111</v>
       </c>
       <c r="AD4" t="n">
-        <v>209294.156573583</v>
+        <v>267377.4514742342</v>
       </c>
       <c r="AE4" t="n">
-        <v>286365.4984303707</v>
+        <v>365837.6249676974</v>
       </c>
       <c r="AF4" t="n">
         <v>1.450563796735954e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.8375</v>
       </c>
       <c r="AH4" t="n">
-        <v>259035.1771767617</v>
+        <v>330922.595497111</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.3123128272198</v>
+        <v>299.7333651976039</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.5964435397366</v>
+        <v>410.1084135661814</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.9991689283338</v>
+        <v>370.9682421661978</v>
       </c>
       <c r="AD2" t="n">
-        <v>234312.3128272198</v>
+        <v>299733.3651976039</v>
       </c>
       <c r="AE2" t="n">
-        <v>320596.4435397366</v>
+        <v>410108.4135661814</v>
       </c>
       <c r="AF2" t="n">
         <v>1.69560719334086e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>289999.1689283338</v>
+        <v>370968.2421661978</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.9909227014806</v>
+        <v>295.2674283743503</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.3154828065401</v>
+        <v>403.9979217813785</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.4130928686187</v>
+        <v>365.4409271412073</v>
       </c>
       <c r="AD2" t="n">
-        <v>228990.9227014806</v>
+        <v>295267.4283743504</v>
       </c>
       <c r="AE2" t="n">
-        <v>313315.4828065401</v>
+        <v>403997.9217813784</v>
       </c>
       <c r="AF2" t="n">
         <v>1.566440268740774e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>283413.0928686187</v>
+        <v>365440.9271412073</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.3261476688388</v>
+        <v>280.6699731494129</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.2504906426758</v>
+        <v>384.0250395483454</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.2630753954738</v>
+        <v>347.3742287563786</v>
       </c>
       <c r="AD3" t="n">
-        <v>214326.1476688389</v>
+        <v>280669.9731494129</v>
       </c>
       <c r="AE3" t="n">
-        <v>293250.4906426758</v>
+        <v>384025.0395483454</v>
       </c>
       <c r="AF3" t="n">
         <v>1.609484744034713e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.89583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>265263.0753954739</v>
+        <v>347374.2287563786</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.7314316080529</v>
+        <v>333.924289491089</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.0618062160589</v>
+        <v>456.8899445816501</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.3204689211697</v>
+        <v>413.2850095198414</v>
       </c>
       <c r="AD2" t="n">
-        <v>250731.4316080529</v>
+        <v>333924.2894910891</v>
       </c>
       <c r="AE2" t="n">
-        <v>343061.8062160589</v>
+        <v>456889.9445816501</v>
       </c>
       <c r="AF2" t="n">
         <v>1.728664107236097e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.88333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>310320.4689211696</v>
+        <v>413285.0095198414</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.7763949854871</v>
+        <v>543.7641967472695</v>
       </c>
       <c r="AB2" t="n">
-        <v>611.2991740026019</v>
+        <v>744.0021631729038</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.9576387995721</v>
+        <v>672.9956409332755</v>
       </c>
       <c r="AD2" t="n">
-        <v>446776.3949854871</v>
+        <v>543764.1967472695</v>
       </c>
       <c r="AE2" t="n">
-        <v>611299.174002602</v>
+        <v>744002.1631729038</v>
       </c>
       <c r="AF2" t="n">
         <v>8.721423011226584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.21666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>552957.6387995721</v>
+        <v>672995.6409332755</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.036125315104</v>
+        <v>270.2896975080673</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.1171810296413</v>
+        <v>369.8222884704151</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.4288044542788</v>
+        <v>334.5269683076396</v>
       </c>
       <c r="AD3" t="n">
-        <v>212036.125315104</v>
+        <v>270289.6975080672</v>
       </c>
       <c r="AE3" t="n">
-        <v>290117.1810296413</v>
+        <v>369822.288470415</v>
       </c>
       <c r="AF3" t="n">
         <v>1.412947751265403e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.8625</v>
       </c>
       <c r="AH3" t="n">
-        <v>262428.8044542788</v>
+        <v>334526.9683076396</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.470579501438</v>
+        <v>268.7241516944012</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.9751321803778</v>
+        <v>367.6802396211504</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.4911897408039</v>
+        <v>332.5893535941644</v>
       </c>
       <c r="AD4" t="n">
-        <v>210470.579501438</v>
+        <v>268724.1516944012</v>
       </c>
       <c r="AE4" t="n">
-        <v>287975.1321803778</v>
+        <v>367680.2396211504</v>
       </c>
       <c r="AF4" t="n">
         <v>1.426059648985656e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>260491.1897408038</v>
+        <v>332589.3535941644</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.3099311757118</v>
+        <v>358.914111217383</v>
       </c>
       <c r="AB2" t="n">
-        <v>378.0594377684511</v>
+        <v>491.0821211406916</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.9779756375828</v>
+        <v>444.2139327371091</v>
       </c>
       <c r="AD2" t="n">
-        <v>276309.9311757118</v>
+        <v>358914.1112173831</v>
       </c>
       <c r="AE2" t="n">
-        <v>378059.4377684511</v>
+        <v>491082.1211406916</v>
       </c>
       <c r="AF2" t="n">
         <v>1.729257500694933e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.37083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>341977.9756375828</v>
+        <v>444213.9327371091</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.7714544265438</v>
+        <v>375.3775194688029</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.7922848127087</v>
+        <v>513.6080826245956</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.7777228937582</v>
+        <v>464.5900480723748</v>
       </c>
       <c r="AD2" t="n">
-        <v>298771.4544265438</v>
+        <v>375377.5194688029</v>
       </c>
       <c r="AE2" t="n">
-        <v>408792.2848127087</v>
+        <v>513608.0826245956</v>
       </c>
       <c r="AF2" t="n">
         <v>1.222248634131671e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.27916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>369777.7228937582</v>
+        <v>464590.0480723748</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.8034759941457</v>
+        <v>273.2668188880022</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.2718364324854</v>
+        <v>373.8957172837677</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.0915067800813</v>
+        <v>338.2116347921392</v>
       </c>
       <c r="AD3" t="n">
-        <v>215803.4759941457</v>
+        <v>273266.8188880022</v>
       </c>
       <c r="AE3" t="n">
-        <v>295271.8364324854</v>
+        <v>373895.7172837677</v>
       </c>
       <c r="AF3" t="n">
         <v>1.525614760724414e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.24166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>267091.5067800813</v>
+        <v>338211.6347921392</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.9449019394362</v>
+        <v>444.1204710179522</v>
       </c>
       <c r="AB2" t="n">
-        <v>502.0702033000866</v>
+        <v>607.6652216591249</v>
       </c>
       <c r="AC2" t="n">
-        <v>454.1533277570815</v>
+        <v>549.6705057674724</v>
       </c>
       <c r="AD2" t="n">
-        <v>366944.9019394362</v>
+        <v>444120.4710179522</v>
       </c>
       <c r="AE2" t="n">
-        <v>502070.2033000865</v>
+        <v>607665.2216591248</v>
       </c>
       <c r="AF2" t="n">
         <v>1.028858198505502e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.13333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>454153.3277570815</v>
+        <v>549670.5057674723</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.9695329707672</v>
+        <v>275.4588351672178</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.5530899787301</v>
+        <v>376.8949306619236</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.3957424440138</v>
+        <v>340.9246074549063</v>
       </c>
       <c r="AD3" t="n">
-        <v>207969.5329707672</v>
+        <v>275458.8351672178</v>
       </c>
       <c r="AE3" t="n">
-        <v>284553.0899787301</v>
+        <v>376894.9306619236</v>
       </c>
       <c r="AF3" t="n">
         <v>1.47156207776047e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>257395.7424440138</v>
+        <v>340924.6074549063</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.3489699619263</v>
+        <v>275.8382721583769</v>
       </c>
       <c r="AB4" t="n">
-        <v>285.0722524096123</v>
+        <v>377.4140930928061</v>
       </c>
       <c r="AC4" t="n">
-        <v>257.8653567411419</v>
+        <v>341.3942217520345</v>
       </c>
       <c r="AD4" t="n">
-        <v>208348.9699619263</v>
+        <v>275838.2721583769</v>
       </c>
       <c r="AE4" t="n">
-        <v>285072.2524096123</v>
+        <v>377414.0930928061</v>
       </c>
       <c r="AF4" t="n">
         <v>1.471773594186297e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.975</v>
       </c>
       <c r="AH4" t="n">
-        <v>257865.3567411419</v>
+        <v>341394.2217520344</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>548.2871930888897</v>
+        <v>655.6783778333728</v>
       </c>
       <c r="AB2" t="n">
-        <v>750.1907263080243</v>
+        <v>897.1280830401223</v>
       </c>
       <c r="AC2" t="n">
-        <v>678.5935762884831</v>
+        <v>811.507437921945</v>
       </c>
       <c r="AD2" t="n">
-        <v>548287.1930888897</v>
+        <v>655678.3778333728</v>
       </c>
       <c r="AE2" t="n">
-        <v>750190.7263080243</v>
+        <v>897128.0830401223</v>
       </c>
       <c r="AF2" t="n">
         <v>7.358543420240182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.775</v>
       </c>
       <c r="AH2" t="n">
-        <v>678593.5762884831</v>
+        <v>811507.437921945</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.6916619928272</v>
+        <v>293.2013520457529</v>
       </c>
       <c r="AB3" t="n">
-        <v>321.1154858038244</v>
+        <v>401.1710249997367</v>
       </c>
       <c r="AC3" t="n">
-        <v>290.4686745272176</v>
+        <v>362.883825420831</v>
       </c>
       <c r="AD3" t="n">
-        <v>234691.6619928273</v>
+        <v>293201.3520457529</v>
       </c>
       <c r="AE3" t="n">
-        <v>321115.4858038244</v>
+        <v>401171.0249997368</v>
       </c>
       <c r="AF3" t="n">
         <v>1.312231916011789e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.2125</v>
       </c>
       <c r="AH3" t="n">
-        <v>290468.6745272176</v>
+        <v>362883.825420831</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.109478156401</v>
+        <v>271.6864880170307</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.5857897400884</v>
+        <v>371.733438866827</v>
       </c>
       <c r="AC4" t="n">
-        <v>263.7572512106066</v>
+        <v>336.2557211925346</v>
       </c>
       <c r="AD4" t="n">
-        <v>213109.478156401</v>
+        <v>271686.4880170308</v>
       </c>
       <c r="AE4" t="n">
-        <v>291585.7897400884</v>
+        <v>371733.4388668271</v>
       </c>
       <c r="AF4" t="n">
         <v>1.381760248929449e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.59583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>263757.2512106065</v>
+        <v>336255.7211925346</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.0268526586628</v>
+        <v>307.6650465831082</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.783573161703</v>
+        <v>420.9608899589148</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.3094917934</v>
+        <v>380.784973443555</v>
       </c>
       <c r="AD2" t="n">
-        <v>241026.8526586628</v>
+        <v>307665.0465831082</v>
       </c>
       <c r="AE2" t="n">
-        <v>329783.573161703</v>
+        <v>420960.8899589148</v>
       </c>
       <c r="AF2" t="n">
         <v>1.45798203418761e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="AH2" t="n">
-        <v>298309.4917934</v>
+        <v>380784.9734435549</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.512700708794</v>
+        <v>281.1167292144582</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.5057407420816</v>
+        <v>384.6363109060269</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.4939647836381</v>
+        <v>347.9271612336078</v>
       </c>
       <c r="AD3" t="n">
-        <v>214512.700708794</v>
+        <v>281116.7292144583</v>
       </c>
       <c r="AE3" t="n">
-        <v>293505.7407420815</v>
+        <v>384636.3109060269</v>
       </c>
       <c r="AF3" t="n">
         <v>1.580567199958283e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.6375</v>
       </c>
       <c r="AH3" t="n">
-        <v>265493.9647836381</v>
+        <v>347927.1612336078</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.7434924373347</v>
+        <v>289.5500260178652</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.1357172188546</v>
+        <v>396.1751196432451</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.9185540317552</v>
+        <v>358.3647222597657</v>
       </c>
       <c r="AD2" t="n">
-        <v>223743.4924373347</v>
+        <v>289550.0260178652</v>
       </c>
       <c r="AE2" t="n">
-        <v>306135.7172188546</v>
+        <v>396175.1196432451</v>
       </c>
       <c r="AF2" t="n">
         <v>1.668020210645345e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.61666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>276918.5540317552</v>
+        <v>358364.7222597657</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.9147777454187</v>
+        <v>311.3283516678593</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.1572508534636</v>
+        <v>425.9731855894855</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.2201377896642</v>
+        <v>385.3189026139451</v>
       </c>
       <c r="AD2" t="n">
-        <v>236914.7777454187</v>
+        <v>311328.3516678593</v>
       </c>
       <c r="AE2" t="n">
-        <v>324157.2508534635</v>
+        <v>425973.1855894855</v>
       </c>
       <c r="AF2" t="n">
         <v>1.716413438410163e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.8625</v>
       </c>
       <c r="AH2" t="n">
-        <v>293220.1377896642</v>
+        <v>385318.9026139451</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>319.3012881385995</v>
+        <v>410.4111228527846</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.8821090098849</v>
+        <v>561.5426043480595</v>
       </c>
       <c r="AC2" t="n">
-        <v>395.1866936938717</v>
+        <v>507.9497663190751</v>
       </c>
       <c r="AD2" t="n">
-        <v>319301.2881385995</v>
+        <v>410411.1228527846</v>
       </c>
       <c r="AE2" t="n">
-        <v>436882.1090098849</v>
+        <v>561542.6043480595</v>
       </c>
       <c r="AF2" t="n">
         <v>1.679449173046349e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.0875</v>
       </c>
       <c r="AH2" t="n">
-        <v>395186.6936938717</v>
+        <v>507949.7663190751</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.2414406512335</v>
+        <v>408.1376023812666</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.2191524400224</v>
+        <v>558.4318733382842</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.9645526282214</v>
+        <v>505.1359191109344</v>
       </c>
       <c r="AD2" t="n">
-        <v>331241.4406512335</v>
+        <v>408137.6023812666</v>
       </c>
       <c r="AE2" t="n">
-        <v>453219.1524400224</v>
+        <v>558431.8733382842</v>
       </c>
       <c r="AF2" t="n">
         <v>1.121398729071144e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.1625</v>
       </c>
       <c r="AH2" t="n">
-        <v>409964.5526282215</v>
+        <v>505135.9191109344</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.7003217980213</v>
+        <v>274.3556131436227</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.4989404273919</v>
+        <v>375.3854536185202</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.2014976919656</v>
+        <v>339.559192781961</v>
       </c>
       <c r="AD3" t="n">
-        <v>216700.3217980213</v>
+        <v>274355.6131436227</v>
       </c>
       <c r="AE3" t="n">
-        <v>296498.9404273919</v>
+        <v>375385.4536185202</v>
       </c>
       <c r="AF3" t="n">
         <v>1.499171040540167e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.0875</v>
       </c>
       <c r="AH3" t="n">
-        <v>268201.4976919656</v>
+        <v>339559.1927819611</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>495.3146875258352</v>
+        <v>592.6106556477301</v>
       </c>
       <c r="AB2" t="n">
-        <v>677.7114072146438</v>
+        <v>810.8360431941918</v>
       </c>
       <c r="AC2" t="n">
-        <v>613.0315816840115</v>
+        <v>733.4509892472713</v>
       </c>
       <c r="AD2" t="n">
-        <v>495314.6875258352</v>
+        <v>592610.6556477301</v>
       </c>
       <c r="AE2" t="n">
-        <v>677711.4072146438</v>
+        <v>810836.0431941918</v>
       </c>
       <c r="AF2" t="n">
         <v>8.004225726185097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>613031.5816840115</v>
+        <v>733450.9892472713</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.7233650747896</v>
+        <v>284.8093357879501</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.5304692552639</v>
+        <v>389.6886981261831</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.2300174527564</v>
+        <v>352.4973557085423</v>
       </c>
       <c r="AD3" t="n">
-        <v>216723.3650747896</v>
+        <v>284809.3357879501</v>
       </c>
       <c r="AE3" t="n">
-        <v>296530.4692552639</v>
+        <v>389688.6981261831</v>
       </c>
       <c r="AF3" t="n">
         <v>1.370328160782929e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>268230.0174527565</v>
+        <v>352497.3557085423</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.7413462835079</v>
+        <v>270.1593190412701</v>
       </c>
       <c r="AB4" t="n">
-        <v>289.7138513538787</v>
+        <v>369.6438989002512</v>
       </c>
       <c r="AC4" t="n">
-        <v>262.063967996694</v>
+        <v>334.365603987681</v>
       </c>
       <c r="AD4" t="n">
-        <v>211741.3462835079</v>
+        <v>270159.3190412701</v>
       </c>
       <c r="AE4" t="n">
-        <v>289713.8513538787</v>
+        <v>369643.8989002512</v>
       </c>
       <c r="AF4" t="n">
         <v>1.40377572323313e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>262063.9679966941</v>
+        <v>334365.603987681</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.8201973867849</v>
+        <v>514.2058990373678</v>
       </c>
       <c r="AB2" t="n">
-        <v>542.946900536164</v>
+        <v>703.5591962261545</v>
       </c>
       <c r="AC2" t="n">
-        <v>491.1288103797526</v>
+        <v>636.4124939898633</v>
       </c>
       <c r="AD2" t="n">
-        <v>396820.1973867848</v>
+        <v>514205.8990373678</v>
       </c>
       <c r="AE2" t="n">
-        <v>542946.9005361639</v>
+        <v>703559.1962261546</v>
       </c>
       <c r="AF2" t="n">
         <v>1.543901142366604e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>491128.8103797526</v>
+        <v>636412.4939898633</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.6232003293471</v>
+        <v>289.6234701264664</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.9711282497927</v>
+        <v>396.2756091127588</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.7696732028986</v>
+        <v>358.4556211553468</v>
       </c>
       <c r="AD2" t="n">
-        <v>223623.2003293471</v>
+        <v>289623.4701264664</v>
       </c>
       <c r="AE2" t="n">
-        <v>305971.1282497927</v>
+        <v>396275.6091127588</v>
       </c>
       <c r="AF2" t="n">
         <v>1.636162830769936e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.2375</v>
       </c>
       <c r="AH2" t="n">
-        <v>276769.6732028986</v>
+        <v>358455.6211553467</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.5659365703482</v>
+        <v>280.1914293445145</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.8927774484317</v>
+        <v>383.3702748026207</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.6988000920534</v>
+        <v>346.7819538390178</v>
       </c>
       <c r="AD3" t="n">
-        <v>223565.9365703482</v>
+        <v>280191.4293445145</v>
       </c>
       <c r="AE3" t="n">
-        <v>305892.7774484317</v>
+        <v>383370.2748026206</v>
       </c>
       <c r="AF3" t="n">
         <v>1.641309141182842e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>276698.8000920534</v>
+        <v>346781.9538390178</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.1642574010395</v>
+        <v>334.9815732371904</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.91416754818</v>
+        <v>458.336566847133</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.8963943646494</v>
+        <v>414.5935681866537</v>
       </c>
       <c r="AD2" t="n">
-        <v>268164.2574010395</v>
+        <v>334981.5732371904</v>
       </c>
       <c r="AE2" t="n">
-        <v>366914.16754818</v>
+        <v>458336.566847133</v>
       </c>
       <c r="AF2" t="n">
         <v>1.338127706825452e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.4125</v>
       </c>
       <c r="AH2" t="n">
-        <v>331896.3943646494</v>
+        <v>414593.5681866537</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.0935794611739</v>
+        <v>272.3559473482052</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.3005246776492</v>
+        <v>372.6494226582013</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.2128956558817</v>
+        <v>337.0842847764514</v>
       </c>
       <c r="AD3" t="n">
-        <v>215093.5794611739</v>
+        <v>272355.9473482053</v>
       </c>
       <c r="AE3" t="n">
-        <v>294300.5246776492</v>
+        <v>372649.4226582013</v>
       </c>
       <c r="AF3" t="n">
         <v>1.553503825676288e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>266212.8956558817</v>
+        <v>337084.2847764514</v>
       </c>
     </row>
   </sheetData>
